--- a/va_facility_data_2025-02-20/Henderson Mill VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Henderson%20Mill%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Henderson Mill VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Henderson%20Mill%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R70300a4413f2468da97ee6cb18fed02d"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Ref57249f9c4c444083b241852266551f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3efc2dc7a5294797a8e821e44ee0934d"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rfb976fe96a3c49c1881668d23302495d"/>
   </x:sheets>
 </x:workbook>
 </file>
